--- a/development/roadmap_lp_v0.xlsx
+++ b/development/roadmap_lp_v0.xlsx
@@ -83,7 +83,7 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t>import templates</t>
+      <t>products &amp; inventory adjustment</t>
     </r>
   </si>
   <si>
@@ -104,7 +104,70 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t>products &amp; inventory adjustment</t>
+      <t>communication :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>interface odoo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>interface web</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>email &amp; report templates : RFQ, purchaseorder, quote, saleorder</t>
     </r>
   </si>
   <si>
@@ -125,7 +188,112 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t> </t>
+      <t>Workflow/pipeline :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>BOMs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>leads purchase &amp; manufacture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>reorder rules</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>procurement request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>manufacture</t>
     </r>
   </si>
   <si>
@@ -146,71 +314,74 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t>communication :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>interface odoo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>interface web</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>email &amp; report templates : RFQ, purchaseorder, quote, saleorder</t>
-    </r>
+      <t>Accounting :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>taxes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>invoices</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>banking</t>
+    </r>
+  </si>
+  <si>
+    <t>TODOLIST AVRIL-JUILLET 2016</t>
   </si>
   <si>
     <r>
@@ -230,112 +401,7 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t>Workflow/pipeline :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>BOMs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>leads purchase &amp; manufacture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>reorder rules</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>procurement request</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>manufacture</t>
+      <t>templates d'import</t>
     </r>
   </si>
   <si>
@@ -356,74 +422,8 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t>Accounting :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>taxes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>invoices</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>banking</t>
-    </r>
-  </si>
-  <si>
-    <t>TODOLIST AVRIL-JUILLET 2016</t>
+      <t>barcode</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -834,7 +834,7 @@
     </row>
     <row r="3" spans="2:2" ht="22">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="22">
@@ -849,87 +849,87 @@
     </row>
     <row r="6" spans="2:2" ht="22">
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="22">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="22">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="22">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="22">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="22">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="22">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="22">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="22">
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="22">
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="22">
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="22">
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="22">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="22">
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="22">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="22">
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="22">
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
